--- a/session4/Data-sheet-STUDENTS-filled.xlsx
+++ b/session4/Data-sheet-STUDENTS-filled.xlsx
@@ -1322,28 +1322,37 @@
         <v>172</v>
       </c>
       <c r="T2">
-        <v>19199437988.8023</v>
+        <v>20046334303.9661</v>
       </c>
       <c r="U2">
-        <v>590.2695153826051</v>
+        <v>653.347488111011</v>
       </c>
       <c r="V2">
-        <v>1.51991126448578</v>
+        <v>1.95912289275337</v>
       </c>
       <c r="W2">
-        <v>-1.28616720583651</v>
+        <v>-1.21669484932227</v>
       </c>
       <c r="X2">
-        <v>22.6039268726035</v>
+        <v>23.8913721393019</v>
       </c>
       <c r="Y2">
-        <v>22.4166817955447</v>
+        <v>21.1532682183737</v>
       </c>
       <c r="Z2">
-        <v>54.9793913318518</v>
+        <v>54.9553596423244</v>
       </c>
       <c r="AA2">
         <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0.00490971460352713</v>
+      </c>
+      <c r="AH2">
+        <v>46.9970590938333</v>
+      </c>
+      <c r="AI2">
+        <v>25.871</v>
       </c>
       <c r="AM2">
         <v>0.7188979944831519</v>
@@ -1420,28 +1429,37 @@
         <v>99</v>
       </c>
       <c r="T3">
-        <v>11455595709.1413</v>
+        <v>12781029643.5936</v>
       </c>
       <c r="U3">
-        <v>3965.01680558488</v>
+        <v>4412.34557813421</v>
       </c>
       <c r="V3">
-        <v>2.55999999999999</v>
+        <v>1.10999999256572</v>
       </c>
       <c r="W3">
-        <v>2.71928006930717</v>
+        <v>1.23548639893185</v>
       </c>
       <c r="X3">
-        <v>22.0492060503358</v>
+        <v>22.5030899684471</v>
       </c>
       <c r="Y3">
-        <v>26.1513054666415</v>
+        <v>26.3683308733574</v>
       </c>
       <c r="Z3">
-        <v>51.7994884830226</v>
+        <v>51.1285791581955</v>
       </c>
       <c r="AA3">
         <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>5.75292812999583</v>
+      </c>
+      <c r="AH3">
+        <v>105.717226277372</v>
+      </c>
+      <c r="AI3">
+        <v>55.383</v>
       </c>
       <c r="AM3">
         <v>8.015508382608219</v>
@@ -1518,28 +1536,37 @@
         <v>105</v>
       </c>
       <c r="T4">
-        <v>10561401185.098</v>
+        <v>11121465767.4067</v>
       </c>
       <c r="U4">
-        <v>3499.80421759862</v>
+        <v>3716.82892254464</v>
       </c>
       <c r="V4">
-        <v>3.00000000125773</v>
+        <v>3.30000000179984</v>
       </c>
       <c r="W4">
-        <v>2.60550443640113</v>
+        <v>2.82175031059522</v>
       </c>
       <c r="X4">
-        <v>19.3520404502788</v>
+        <v>20.7403685968283</v>
       </c>
       <c r="Y4">
-        <v>28.7222907426849</v>
+        <v>30.0495052109052</v>
       </c>
       <c r="Z4">
-        <v>51.9256688070363</v>
+        <v>49.2101261922665</v>
       </c>
       <c r="AA4">
         <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>8.165718482304779</v>
+      </c>
+      <c r="AH4">
+        <v>105.099824376537</v>
+      </c>
+      <c r="AI4">
+        <v>62.975</v>
       </c>
       <c r="AM4">
         <v>2.04411103926791</v>
@@ -1619,28 +1646,37 @@
         <v>152</v>
       </c>
       <c r="T5">
-        <v>53047140347.4527</v>
+        <v>73560484384.9586</v>
       </c>
       <c r="U5">
-        <v>5496.34464026248</v>
+        <v>7811.6214184582</v>
       </c>
       <c r="V5">
-        <v>1.09999999999999</v>
+        <v>5.79667839631929</v>
       </c>
       <c r="W5">
-        <v>-0.117953780347179</v>
+        <v>4.4370662913712</v>
       </c>
       <c r="X5">
-        <v>6.79136800335426</v>
+        <v>5.66081048558787</v>
       </c>
       <c r="Y5">
-        <v>36.9931249761771</v>
+        <v>62.0737915841309</v>
       </c>
       <c r="Z5">
-        <v>56.2155070204686</v>
+        <v>32.2653979302812</v>
       </c>
       <c r="AA5">
         <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>18.1886816906077</v>
+      </c>
+      <c r="AH5">
+        <v>113.923480806688</v>
+      </c>
+      <c r="AI5">
+        <v>54.1</v>
       </c>
       <c r="AM5">
         <v>2.98894773250189</v>
@@ -1717,28 +1753,37 @@
         <v>99</v>
       </c>
       <c r="T6">
-        <v>32221489361.7021</v>
+        <v>32897606382.9787</v>
       </c>
       <c r="U6">
-        <v>23395.7476902684</v>
+        <v>24378.9448284188</v>
       </c>
       <c r="V6">
-        <v>2.92656721719055</v>
+        <v>5.41293824262871</v>
       </c>
       <c r="W6">
-        <v>1.78261235365325</v>
+        <v>4.17478673747458</v>
       </c>
       <c r="X6">
-        <v>25.4640636454042</v>
+        <v>24.8176764800589</v>
       </c>
       <c r="Y6">
-        <v>41.3708969169512</v>
+        <v>48.4316261772909</v>
       </c>
       <c r="Z6">
-        <v>58.3286560442681</v>
+        <v>51.2965762561138</v>
       </c>
       <c r="AA6">
         <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>22.5238351532949</v>
+      </c>
+      <c r="AH6">
+        <v>1752.5025974026</v>
+      </c>
+      <c r="AI6">
+        <v>88.667</v>
       </c>
       <c r="AM6">
         <v>4.01407215183723</v>
@@ -1809,28 +1854,37 @@
         <v>149</v>
       </c>
       <c r="T7">
-        <v>195078665827.565</v>
+        <v>149990451022.29</v>
       </c>
       <c r="U7">
-        <v>1211.70153057661</v>
+        <v>954.3963997156241</v>
       </c>
       <c r="V7">
-        <v>6.55263331602802</v>
+        <v>6.01359606747023</v>
       </c>
       <c r="W7">
-        <v>5.2831474252867</v>
+        <v>4.73190915795476</v>
       </c>
       <c r="X7">
-        <v>14.8497291534782</v>
+        <v>15.1335309902601</v>
       </c>
       <c r="Y7">
-        <v>28.1463235005595</v>
+        <v>27.6362262923618</v>
       </c>
       <c r="Z7">
-        <v>56.3462045652581</v>
+        <v>56.0877028989812</v>
       </c>
       <c r="AA7">
         <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0.974057517891284</v>
+      </c>
+      <c r="AH7">
+        <v>1207.32422217101</v>
+      </c>
+      <c r="AI7">
+        <v>32.753</v>
       </c>
       <c r="AM7">
         <v>1.07297613722048</v>
@@ -1907,28 +1961,37 @@
         <v>70</v>
       </c>
       <c r="T8">
-        <v>54608962634.9908</v>
+        <v>73097619636.82091</v>
       </c>
       <c r="U8">
-        <v>5740.45649479562</v>
+        <v>7722.12335060436</v>
       </c>
       <c r="V8">
-        <v>-3.88769850231654</v>
+        <v>1.07360080128041</v>
       </c>
       <c r="W8">
-        <v>-4.19079626799829</v>
+        <v>1.05224571976734</v>
       </c>
       <c r="X8">
-        <v>0.300447038780779</v>
+        <v>0.271797566595254</v>
       </c>
       <c r="Y8">
-        <v>40.1472592179596</v>
+        <v>41.9783867665079</v>
       </c>
       <c r="Z8">
-        <v>52.0569624048448</v>
+        <v>49.9318473964617</v>
       </c>
       <c r="AA8">
         <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>29.7738363979182</v>
+      </c>
+      <c r="AH8">
+        <v>46.651224680893</v>
+      </c>
+      <c r="AI8">
+        <v>75.877</v>
       </c>
       <c r="AM8">
         <v>2.47207227542048</v>
@@ -1999,28 +2062,37 @@
         <v>25</v>
       </c>
       <c r="T9">
-        <v>1962221695.69413</v>
+        <v>1798333725.83954</v>
       </c>
       <c r="U9">
-        <v>2532.45446832741</v>
+        <v>2383.04472990264</v>
       </c>
       <c r="V9">
-        <v>3.25425473889356</v>
+        <v>2.14249655359879</v>
       </c>
       <c r="W9">
-        <v>1.9453698350496</v>
+        <v>0.663628015023818</v>
       </c>
       <c r="X9">
-        <v>2.77654622035025</v>
+        <v>3.23637312998523</v>
       </c>
       <c r="Y9">
-        <v>42.0790242339736</v>
+        <v>44.6812770942002</v>
       </c>
       <c r="Z9">
-        <v>40.8652126344372</v>
+        <v>38.3298459197261</v>
       </c>
       <c r="AA9">
         <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>2.71650394523753</v>
+      </c>
+      <c r="AH9">
+        <v>19.7979116929454</v>
+      </c>
+      <c r="AI9">
+        <v>37.139</v>
       </c>
       <c r="AM9">
         <v>0.104526590777132</v>
@@ -2097,28 +2169,37 @@
         <v>89</v>
       </c>
       <c r="T10">
-        <v>15995392117.9473</v>
+        <v>18154290272.2151</v>
       </c>
       <c r="U10">
-        <v>4197.80730449044</v>
+        <v>4748.04069226421</v>
       </c>
       <c r="V10">
-        <v>3.15757629916973</v>
+        <v>2.39419189552366</v>
       </c>
       <c r="W10">
-        <v>3.35081997115292</v>
+        <v>2.52503894760913</v>
       </c>
       <c r="X10">
-        <v>5.13820734776027</v>
+        <v>5.34155492637212</v>
       </c>
       <c r="Y10">
-        <v>27.13001108395</v>
+        <v>26.9085381887678</v>
       </c>
       <c r="Z10">
-        <v>65.7655687803434</v>
+        <v>64.8046957326314</v>
       </c>
       <c r="AA10">
         <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>13.4777389224734</v>
+      </c>
+      <c r="AH10">
+        <v>74.67837890625</v>
+      </c>
+      <c r="AI10">
+        <v>39.486</v>
       </c>
       <c r="AM10">
         <v>2.45426242919083</v>
@@ -2183,19 +2264,34 @@
         <v>31</v>
       </c>
       <c r="T11">
-        <v>15492035784.4207</v>
+        <v>16110693734.0153</v>
       </c>
       <c r="U11">
-        <v>36607.9278817468</v>
+        <v>39151.2342290391</v>
       </c>
       <c r="V11">
-        <v>6.49999990951666</v>
+        <v>10.200000101399</v>
       </c>
       <c r="W11">
-        <v>-1.86228579260282</v>
+        <v>-3.18139539863647</v>
+      </c>
+      <c r="Y11">
+        <v>68.2404242547513</v>
+      </c>
+      <c r="Z11">
+        <v>31.0337984988367</v>
       </c>
       <c r="AA11">
         <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>6.5959921873504</v>
+      </c>
+      <c r="AH11">
+        <v>78.0833017077799</v>
+      </c>
+      <c r="AI11">
+        <v>76.56100000000001</v>
       </c>
       <c r="AM11">
         <v>3.77012889037483</v>
@@ -2275,28 +2371,37 @@
         <v>77</v>
       </c>
       <c r="T12">
-        <v>48952959079.5738</v>
+        <v>55626359256.2432</v>
       </c>
       <c r="U12">
-        <v>6819.86910816324</v>
+        <v>7656.63850554922</v>
       </c>
       <c r="V12">
-        <v>2.96713547854921</v>
+        <v>1.28188508367137</v>
       </c>
       <c r="W12">
-        <v>3.62623786163006</v>
+        <v>1.85029539796324</v>
       </c>
       <c r="X12">
-        <v>7.79577837719564</v>
+        <v>8.089765837030381</v>
       </c>
       <c r="Y12">
-        <v>27.6133062083995</v>
+        <v>27.5555782388176</v>
       </c>
       <c r="Z12">
-        <v>67.24848644384021</v>
+        <v>67.1028668348103</v>
       </c>
       <c r="AA12">
         <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>19.6810635221682</v>
+      </c>
+      <c r="AH12">
+        <v>66.922577376566</v>
+      </c>
+      <c r="AI12">
+        <v>73.3</v>
       </c>
       <c r="AM12">
         <v>3.96103655028061</v>
@@ -2376,25 +2481,25 @@
         <v>161</v>
       </c>
       <c r="T13">
-        <v>18049954289.4301</v>
+        <v>15449630418.5486</v>
       </c>
       <c r="U13">
-        <v>1158.68990352486</v>
+        <v>1024.60886982001</v>
       </c>
       <c r="V13">
-        <v>7.03608717936477</v>
+        <v>7.48000365272792</v>
       </c>
       <c r="W13">
-        <v>5.3199601045789</v>
+        <v>5.72431310953696</v>
       </c>
       <c r="X13">
-        <v>15.9416995164261</v>
+        <v>17.0026543149536</v>
       </c>
       <c r="Y13">
-        <v>29.4173723333596</v>
+        <v>25.6393813725129</v>
       </c>
       <c r="Z13">
-        <v>42.3334790133704</v>
+        <v>40.8464909559929</v>
       </c>
       <c r="AA13">
         <v>0.876925508631561</v>
@@ -2412,13 +2517,13 @@
         <v>21.91</v>
       </c>
       <c r="AG13">
-        <v>0.09</v>
+        <v>0.215709517349955</v>
       </c>
       <c r="AH13">
-        <v>88.250050985724</v>
+        <v>85.4212780421482</v>
       </c>
       <c r="AI13">
-        <v>0.20723</v>
+        <v>20.319</v>
       </c>
       <c r="AJ13">
         <v>51.3</v>
@@ -2590,25 +2695,37 @@
         <v>60</v>
       </c>
       <c r="T15">
-        <v>48732003674.38</v>
+        <v>57770884728.6496</v>
       </c>
       <c r="U15">
-        <v>11535.8293558997</v>
+        <v>13574.9780420161</v>
       </c>
       <c r="V15">
-        <v>1.64461325883687</v>
+        <v>-1.06392109616958</v>
       </c>
       <c r="W15">
-        <v>1.98111041119844</v>
+        <v>-0.787991083306892</v>
+      </c>
+      <c r="X15">
+        <v>0.329933054062747</v>
       </c>
       <c r="Y15">
-        <v>26.2052927095021</v>
+        <v>26.6120083959541</v>
       </c>
       <c r="Z15">
-        <v>69.50386606472389</v>
+        <v>68.994683281463</v>
       </c>
       <c r="AA15">
         <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>22.2560291898248</v>
+      </c>
+      <c r="AH15">
+        <v>76.0487669764117</v>
+      </c>
+      <c r="AI15">
+        <v>58.359</v>
       </c>
       <c r="AM15">
         <v>2.11223904132641</v>
@@ -2688,28 +2805,37 @@
         <v>38</v>
       </c>
       <c r="T16">
-        <v>181811026983.078</v>
+        <v>208328435108.816</v>
       </c>
       <c r="U16">
-        <v>17231.2817109642</v>
+        <v>19813.8715746383</v>
       </c>
       <c r="V16">
-        <v>4.19804965676525</v>
+        <v>-0.528170820871225</v>
       </c>
       <c r="W16">
-        <v>3.94255198007787</v>
+        <v>-0.561160101379429</v>
       </c>
       <c r="X16">
-        <v>28.2491486532701</v>
+        <v>33.5141276714942</v>
       </c>
       <c r="Y16">
-        <v>38.091385170647</v>
+        <v>36.8658849661009</v>
       </c>
       <c r="Z16">
-        <v>59.5250579376435</v>
+        <v>60.4384653575712</v>
       </c>
       <c r="AA16">
         <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>26.6876791746592</v>
+      </c>
+      <c r="AH16">
+        <v>136.142328110838</v>
+      </c>
+      <c r="AI16">
+        <v>73.06</v>
       </c>
       <c r="AM16">
         <v>3.46360022575233</v>
@@ -2774,22 +2900,37 @@
         <v>105</v>
       </c>
       <c r="T17">
-        <v>1412377919.12175</v>
+        <v>1319000000</v>
       </c>
       <c r="U17">
-        <v>1134.42642789183</v>
+        <v>1117.73125130819</v>
       </c>
       <c r="V17">
-        <v>4.251</v>
+        <v>2.75735294117648</v>
       </c>
       <c r="W17">
-        <v>1.49545736958994</v>
+        <v>0.0482876175784952</v>
       </c>
       <c r="X17">
-        <v>17.0557631315892</v>
+        <v>16.9898781574442</v>
+      </c>
+      <c r="Y17">
+        <v>17.5981873111782</v>
+      </c>
+      <c r="Z17">
+        <v>63.2175226586103</v>
       </c>
       <c r="AA17">
         <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0.0617894761929562</v>
+      </c>
+      <c r="AH17">
+        <v>79.35904505716211</v>
+      </c>
+      <c r="AI17">
+        <v>31.485</v>
       </c>
       <c r="AM17">
         <v>1.85687717938783</v>
@@ -2869,28 +3010,37 @@
         <v>105</v>
       </c>
       <c r="T18">
-        <v>330778550716.746</v>
+        <v>286011230726.274</v>
       </c>
       <c r="U18">
-        <v>3614.74676616271</v>
+        <v>3264.45006267526</v>
       </c>
       <c r="V18">
-        <v>4.2</v>
+        <v>2.10672461668477</v>
       </c>
       <c r="W18">
-        <v>2.00412035727904</v>
+        <v>-0.169342621948047</v>
       </c>
       <c r="X18">
-        <v>11.1816471975681</v>
+        <v>10.9912706208159</v>
       </c>
       <c r="Y18">
-        <v>36.3195006150812</v>
+        <v>38.8854740078469</v>
       </c>
       <c r="Z18">
-        <v>52.498864387308</v>
+        <v>50.1232553713371</v>
       </c>
       <c r="AA18">
         <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>3.26149297011379</v>
+      </c>
+      <c r="AH18">
+        <v>88.0143744035361</v>
+      </c>
+      <c r="AI18">
+        <v>43.025</v>
       </c>
       <c r="AM18">
         <v>2.70933548925046</v>
@@ -2967,25 +3117,34 @@
         <v>18</v>
       </c>
       <c r="T19">
-        <v>22691482754.7965</v>
+        <v>25246787741.9517</v>
       </c>
       <c r="U19">
-        <v>17295.36383043</v>
+        <v>19155.4212505428</v>
       </c>
       <c r="V19">
-        <v>1.06784053106526</v>
+        <v>1.56779582149269</v>
       </c>
       <c r="W19">
-        <v>1.26404493826149</v>
+        <v>1.92991126831478</v>
       </c>
       <c r="Y19">
-        <v>26.7491961759834</v>
+        <v>28.9362580001343</v>
       </c>
       <c r="Z19">
-        <v>69.7459447339573</v>
+        <v>67.560234894499</v>
       </c>
       <c r="AA19">
         <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>28.0402190404202</v>
+      </c>
+      <c r="AH19">
+        <v>31.0921679641425</v>
+      </c>
+      <c r="AI19">
+        <v>67.721</v>
       </c>
       <c r="AM19">
         <v>3.93172182730291</v>
@@ -3145,28 +3304,37 @@
         <v>41</v>
       </c>
       <c r="T21">
-        <v>13965385801.7891</v>
+        <v>16140047072.2616</v>
       </c>
       <c r="U21">
-        <v>3795.97330845042</v>
+        <v>4274.37687295064</v>
       </c>
       <c r="V21">
-        <v>2.77492809454047</v>
+        <v>3.38704372572241</v>
       </c>
       <c r="W21">
-        <v>4.11583501178372</v>
+        <v>4.72866585034114</v>
       </c>
       <c r="X21">
-        <v>10.2665463273775</v>
+        <v>11.2382503777848</v>
       </c>
       <c r="Y21">
-        <v>24.5206288020114</v>
+        <v>24.0208845507718</v>
       </c>
       <c r="Z21">
-        <v>66.2902111459188</v>
+        <v>66.5726039313146</v>
       </c>
       <c r="AA21">
         <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>11.908396770712</v>
+      </c>
+      <c r="AH21">
+        <v>66.06249343923859</v>
+      </c>
+      <c r="AI21">
+        <v>53.309</v>
       </c>
       <c r="AM21">
         <v>7.30479224508309</v>
@@ -3332,19 +3500,37 @@
         <v>64</v>
       </c>
       <c r="T23">
-        <v>120687138088.121</v>
+        <v>134401774737.924</v>
       </c>
       <c r="U23">
-        <v>12259.1150279573</v>
+        <v>13585.4301761498</v>
       </c>
       <c r="V23">
-        <v>2.93891579055648</v>
+        <v>1.88976802221464</v>
       </c>
       <c r="W23">
-        <v>3.16667475247256</v>
+        <v>2.17072726945892</v>
+      </c>
+      <c r="X23">
+        <v>0.034468484002518</v>
+      </c>
+      <c r="Y23">
+        <v>30.1145232387204</v>
+      </c>
+      <c r="Z23">
+        <v>65.3321941960437</v>
       </c>
       <c r="AA23">
         <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>26.0891450788106</v>
+      </c>
+      <c r="AH23">
+        <v>109.27959792334</v>
+      </c>
+      <c r="AI23">
+        <v>70.306</v>
       </c>
       <c r="AM23">
         <v>-46.7692156995959</v>
@@ -3403,19 +3589,37 @@
         <v>113</v>
       </c>
       <c r="T24">
-        <v>2073542978208.77</v>
+        <v>1863208343557.81</v>
       </c>
       <c r="U24">
-        <v>1581.58891324619</v>
+        <v>1456.20162816791</v>
       </c>
       <c r="V24">
-        <v>7.57013036787396</v>
+        <v>6.6388127357182</v>
       </c>
       <c r="W24">
-        <v>6.27712454663818</v>
+        <v>5.3128702386922</v>
+      </c>
+      <c r="X24">
+        <v>18.3266140526165</v>
+      </c>
+      <c r="Y24">
+        <v>30.8087600081594</v>
+      </c>
+      <c r="Z24">
+        <v>50.8646259393205</v>
       </c>
       <c r="AA24">
         <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>1.19217298515972</v>
+      </c>
+      <c r="AH24">
+        <v>430.345478761869</v>
+      </c>
+      <c r="AI24">
+        <v>31.994</v>
       </c>
       <c r="AM24" t="s">
         <v>113</v>
@@ -3495,28 +3699,37 @@
         <v>89</v>
       </c>
       <c r="T25">
-        <v>861933968740.332</v>
+        <v>912524136718.019</v>
       </c>
       <c r="U25">
-        <v>3346.48703949478</v>
+        <v>3631.67269360347</v>
       </c>
       <c r="V25">
-        <v>4.7939213038221</v>
+        <v>5.55726368891023</v>
       </c>
       <c r="W25">
-        <v>3.52896031266474</v>
+        <v>4.200169917002</v>
       </c>
       <c r="X25">
-        <v>13.520732350571</v>
+        <v>13.3566991621949</v>
       </c>
       <c r="Y25">
-        <v>40.0148073054757</v>
+        <v>42.6356774375888</v>
       </c>
       <c r="Z25">
-        <v>43.3238451323323</v>
+        <v>41.5165374799892</v>
       </c>
       <c r="AA25">
         <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>1.30141948173737</v>
+      </c>
+      <c r="AH25">
+        <v>138.701941409937</v>
+      </c>
+      <c r="AI25">
+        <v>52.252</v>
       </c>
       <c r="AM25">
         <v>1.91981263977602</v>
@@ -3586,8 +3799,38 @@
       <c r="S26">
         <v>138</v>
       </c>
+      <c r="T26">
+        <v>511620875086.78</v>
+      </c>
+      <c r="U26">
+        <v>6631.29827041489</v>
+      </c>
+      <c r="V26">
+        <v>-1.91157505672037</v>
+      </c>
+      <c r="W26">
+        <v>-3.17717440847501</v>
+      </c>
+      <c r="X26">
+        <v>9.0296547828892</v>
+      </c>
+      <c r="Y26">
+        <v>40.187335144453</v>
+      </c>
+      <c r="Z26">
+        <v>50.7830168788497</v>
+      </c>
       <c r="AA26">
         <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>6.66409906686323</v>
+      </c>
+      <c r="AH26">
+        <v>47.3749316876976</v>
+      </c>
+      <c r="AI26">
+        <v>72.31999999999999</v>
       </c>
       <c r="AM26">
         <v>1.10547551649492</v>
@@ -3655,19 +3898,25 @@
         <v>168</v>
       </c>
       <c r="T27">
-        <v>168606686710.642</v>
+        <v>232497236277.873</v>
       </c>
       <c r="U27">
-        <v>4629.07663359338</v>
+        <v>6816.62829893909</v>
       </c>
       <c r="V27">
-        <v>2.09999999999999</v>
+        <v>6.57216029806411</v>
       </c>
       <c r="W27">
-        <v>-1.12390085273492</v>
+        <v>2.97966060548337</v>
       </c>
       <c r="AA27">
         <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>78.53049825013819</v>
+      </c>
+      <c r="AI27">
+        <v>69.262</v>
       </c>
       <c r="AM27">
         <v>-2.16236976983533</v>
@@ -3741,19 +3990,28 @@
         <v>34</v>
       </c>
       <c r="T28">
-        <v>296075434804.981</v>
+        <v>292408330563.864</v>
       </c>
       <c r="U28">
-        <v>35329.5110979167</v>
+        <v>36281.1998962546</v>
       </c>
       <c r="V28">
-        <v>2.48807622448481</v>
+        <v>3.35320307068794</v>
       </c>
       <c r="W28">
-        <v>0.473878077120403</v>
+        <v>1.44246080906719</v>
       </c>
       <c r="AA28">
         <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>25.9014962090451</v>
+      </c>
+      <c r="AH28">
+        <v>372.435304990758</v>
+      </c>
+      <c r="AI28">
+        <v>92.012</v>
       </c>
       <c r="AM28">
         <v>5.62324527942779</v>
@@ -3830,28 +4088,37 @@
         <v>58</v>
       </c>
       <c r="T29">
-        <v>37517410299.2739</v>
+        <v>33593843661.9718</v>
       </c>
       <c r="U29">
-        <v>4940.04583805643</v>
+        <v>4656.21980691606</v>
       </c>
       <c r="V29">
-        <v>2.38268662851466</v>
+        <v>2.82921076906983</v>
       </c>
       <c r="W29">
-        <v>-0.0232006201219406</v>
+        <v>-0.311763864642828</v>
       </c>
       <c r="X29">
-        <v>4.17398422334225</v>
+        <v>3.40172843669054</v>
       </c>
       <c r="Y29">
-        <v>29.6406318271146</v>
+        <v>29.6923182628253</v>
       </c>
       <c r="Z29">
-        <v>66.18538394954329</v>
+        <v>66.9059533004842</v>
       </c>
       <c r="AA29">
         <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>4.51458721914092</v>
+      </c>
+      <c r="AH29">
+        <v>81.2664113539085</v>
+      </c>
+      <c r="AI29">
+        <v>83.211</v>
       </c>
       <c r="AM29">
         <v>2.24601670494817</v>
@@ -3931,28 +4198,37 @@
         <v>124</v>
       </c>
       <c r="T30">
-        <v>184360630555.504</v>
+        <v>243775211464.992</v>
       </c>
       <c r="U30">
-        <v>10508.3964031895</v>
+        <v>14310.0250195545</v>
       </c>
       <c r="V30">
-        <v>1.20000000000036</v>
+        <v>5.80000000000022</v>
       </c>
       <c r="W30">
-        <v>-0.270354373879556</v>
+        <v>4.28553486809011</v>
       </c>
       <c r="X30">
-        <v>9.189160052069809</v>
+        <v>9.406511517913639</v>
       </c>
       <c r="Y30">
-        <v>33.2279211309936</v>
+        <v>36.876895275594</v>
       </c>
       <c r="Z30">
-        <v>61.7647613416438</v>
+        <v>58.1948372112973</v>
       </c>
       <c r="AA30">
         <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>11.9145570601924</v>
+      </c>
+      <c r="AH30">
+        <v>6.31006222913657</v>
+      </c>
+      <c r="AI30">
+        <v>53.361</v>
       </c>
       <c r="AM30">
         <v>0.12200420013061</v>
@@ -4029,22 +4305,37 @@
         <v>78</v>
       </c>
       <c r="T31">
-        <v>112811565304.088</v>
+        <v>174161495063.47</v>
       </c>
       <c r="U31">
-        <v>28984.6433890283</v>
+        <v>48463.1516704617</v>
       </c>
       <c r="V31">
-        <v>-0.40000000000002</v>
+        <v>1.14903884697843</v>
       </c>
       <c r="W31">
-        <v>-3.95688421333904</v>
+        <v>-3.75145667602584</v>
       </c>
       <c r="X31">
-        <v>0.136286425345325</v>
+        <v>0.09457545147871101</v>
+      </c>
+      <c r="Y31">
+        <v>67.9146688536802</v>
+      </c>
+      <c r="Z31">
+        <v>31.7553980922571</v>
       </c>
       <c r="AA31">
         <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>1.39524997536048</v>
+      </c>
+      <c r="AH31">
+        <v>201.666049382716</v>
+      </c>
+      <c r="AI31">
+        <v>98.31</v>
       </c>
       <c r="AM31">
         <v>-0.0150888612205668</v>
@@ -4115,28 +4406,37 @@
         <v>132</v>
       </c>
       <c r="T32">
-        <v>6571853849.00585</v>
+        <v>7335027591.91628</v>
       </c>
       <c r="U32">
-        <v>1103.2153515202</v>
+        <v>1282.43716202467</v>
       </c>
       <c r="V32">
-        <v>3.46928079781574</v>
+        <v>10.9154693795795</v>
       </c>
       <c r="W32">
-        <v>1.35890349096086</v>
+        <v>8.73578919945068</v>
       </c>
       <c r="X32">
-        <v>10.2</v>
+        <v>9.79138880835025</v>
       </c>
       <c r="Y32">
-        <v>26.9157155736444</v>
+        <v>28.857134170243</v>
       </c>
       <c r="Z32">
-        <v>57.1425849099294</v>
+        <v>54.1402115148034</v>
       </c>
       <c r="AA32">
         <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>2.45513873877252</v>
+      </c>
+      <c r="AH32">
+        <v>29.8206465067779</v>
+      </c>
+      <c r="AI32">
+        <v>35.483</v>
       </c>
       <c r="AM32">
         <v>0.575815406298862</v>
@@ -4207,25 +4507,37 @@
         <v>132</v>
       </c>
       <c r="T33">
-        <v>12327488340.7341</v>
+        <v>11192471435.4424</v>
       </c>
       <c r="U33">
-        <v>1812.32676524824</v>
+        <v>1700.98737845792</v>
       </c>
       <c r="V33">
-        <v>6.99522551975515</v>
+        <v>8.471097672420401</v>
       </c>
       <c r="W33">
-        <v>5.22210261113469</v>
+        <v>6.70827346695484</v>
+      </c>
+      <c r="X33">
+        <v>3.39934718419127</v>
       </c>
       <c r="Y33">
-        <v>30.8744568625836</v>
+        <v>33.2002424619732</v>
       </c>
       <c r="Z33">
-        <v>41.8820332815012</v>
+        <v>40.4217209872115</v>
       </c>
       <c r="AA33">
         <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0.133314090804548</v>
+      </c>
+      <c r="AH33">
+        <v>28.5094670710572</v>
+      </c>
+      <c r="AI33">
+        <v>36.469</v>
       </c>
       <c r="AM33">
         <v>7.2783070805049</v>
@@ -4296,22 +4608,37 @@
         <v>41</v>
       </c>
       <c r="T34">
-        <v>27035266718.4208</v>
+        <v>30221574614.9761</v>
       </c>
       <c r="U34">
-        <v>13664.9414278021</v>
+        <v>15015.8346769086</v>
       </c>
       <c r="V34">
-        <v>1.88691229576618</v>
+        <v>3.02163108059229</v>
       </c>
       <c r="W34">
-        <v>2.67700398843398</v>
+        <v>4.13095864214608</v>
       </c>
       <c r="X34">
-        <v>4.29084122577397</v>
+        <v>4.39330832258284</v>
+      </c>
+      <c r="Y34">
+        <v>23.7026651085543</v>
+      </c>
+      <c r="Z34">
+        <v>72.8979877072545</v>
       </c>
       <c r="AA34">
         <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>24.1913811376485</v>
+      </c>
+      <c r="AH34">
+        <v>32.362871844348</v>
+      </c>
+      <c r="AI34">
+        <v>67.476</v>
       </c>
       <c r="AM34">
         <v>1.21458444551443</v>
@@ -4391,28 +4718,37 @@
         <v>138</v>
       </c>
       <c r="T35">
-        <v>47102873631.8408</v>
+        <v>44352418120.4377</v>
       </c>
       <c r="U35">
-        <v>8050.75075624426</v>
+        <v>8388.97333273521</v>
       </c>
       <c r="V35">
-        <v>1.50856704175307</v>
+        <v>0.900000061406004</v>
       </c>
       <c r="W35">
-        <v>-2.63188400844915</v>
+        <v>-6.02260802415384</v>
       </c>
       <c r="X35">
-        <v>27.2435098559153</v>
+        <v>26.3780365508153</v>
       </c>
       <c r="Y35">
-        <v>20.6709620663426</v>
+        <v>19.6932616083254</v>
       </c>
       <c r="Z35">
-        <v>73.764035595287</v>
+        <v>73.1294248152935</v>
       </c>
       <c r="AA35">
         <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>9.95443564467725</v>
+      </c>
+      <c r="AH35">
+        <v>516.812316715542</v>
+      </c>
+      <c r="AI35">
+        <v>87.548</v>
       </c>
       <c r="AM35">
         <v>5.0845143642286</v>
@@ -4483,22 +4819,37 @@
         <v>38</v>
       </c>
       <c r="T36">
-        <v>41243983586.5587</v>
+        <v>46418255974.5088</v>
       </c>
       <c r="U36">
-        <v>14172.2210702975</v>
+        <v>15694.0962942719</v>
       </c>
       <c r="V36">
-        <v>1.59377460567481</v>
+        <v>3.54474498348711</v>
       </c>
       <c r="W36">
-        <v>2.36764979271824</v>
+        <v>4.59794567770588</v>
       </c>
       <c r="X36">
-        <v>5.56500233837039</v>
+        <v>7.17731357638124</v>
+      </c>
+      <c r="Y36">
+        <v>30.0541409132139</v>
+      </c>
+      <c r="Z36">
+        <v>65.99289145705001</v>
       </c>
       <c r="AA36">
         <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>27.716889967394</v>
+      </c>
+      <c r="AH36">
+        <v>47.1908895093738</v>
+      </c>
+      <c r="AI36">
+        <v>66.554</v>
       </c>
       <c r="AM36">
         <v>1.62928890004568</v>
@@ -4569,28 +4920,37 @@
         <v>93</v>
       </c>
       <c r="T37">
-        <v>10086021260.9944</v>
+        <v>10817712138.9451</v>
       </c>
       <c r="U37">
-        <v>4852.65784744443</v>
+        <v>5219.53568101849</v>
       </c>
       <c r="V37">
-        <v>3.66528037380903</v>
+        <v>2.92526532054387</v>
       </c>
       <c r="W37">
-        <v>3.5242305579618</v>
+        <v>2.76272375040799</v>
       </c>
       <c r="X37">
-        <v>8.43079391258197</v>
+        <v>9.104052625534811</v>
       </c>
       <c r="Y37">
-        <v>26.1379004321792</v>
+        <v>25.4454942226578</v>
       </c>
       <c r="Z37">
-        <v>62.7006451456147</v>
+        <v>63.0302766621022</v>
       </c>
       <c r="AA37">
         <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>16.0636269325793</v>
+      </c>
+      <c r="AH37">
+        <v>82.1785487708168</v>
+      </c>
+      <c r="AI37">
+        <v>56.981</v>
       </c>
       <c r="AM37">
         <v>5.32273512883726</v>
@@ -4673,25 +5033,25 @@
         <v>61</v>
       </c>
       <c r="T38">
-        <v>296217641787.223</v>
+        <v>323342854422.546</v>
       </c>
       <c r="U38">
-        <v>9766.16575200497</v>
+        <v>10973.6559383179</v>
       </c>
       <c r="V38">
-        <v>4.95237060557724</v>
+        <v>4.7134537155485</v>
       </c>
       <c r="W38">
-        <v>3.46789577381521</v>
+        <v>3.13759388225019</v>
       </c>
       <c r="X38">
-        <v>0.0352706191844887</v>
+        <v>3.85134041749825</v>
       </c>
       <c r="Y38">
-        <v>39.123658674467</v>
+        <v>39.8887537653818</v>
       </c>
       <c r="Z38">
-        <v>44.3003497343713</v>
+        <v>51.0071936090834</v>
       </c>
       <c r="AA38">
         <v>0.8695107032728717</v>
@@ -4709,13 +5069,13 @@
         <v>17.08</v>
       </c>
       <c r="AG38">
-        <v>0.675</v>
+        <v>9.889300606572711</v>
       </c>
       <c r="AH38">
-        <v>92.3177811596408</v>
+        <v>89.6830680261756</v>
       </c>
       <c r="AI38">
-        <v>0.74705</v>
+        <v>73.28400000000001</v>
       </c>
       <c r="AJ38">
         <v>5.4</v>
@@ -4789,22 +5149,37 @@
         <v>124</v>
       </c>
       <c r="T39">
-        <v>3142812004.19099</v>
+        <v>2795200010.41213</v>
       </c>
       <c r="U39">
-        <v>7681.07576733719</v>
+        <v>7112.46821987818</v>
       </c>
       <c r="V39">
-        <v>1.51388419597605</v>
+        <v>4.69979367321605</v>
       </c>
       <c r="W39">
-        <v>-0.511366955012065</v>
+        <v>2.56850016332871</v>
       </c>
       <c r="X39">
-        <v>4.75907978438019</v>
+        <v>6.12799775420037</v>
+      </c>
+      <c r="Y39">
+        <v>17.3310318787421</v>
+      </c>
+      <c r="Z39">
+        <v>78.8176277037596</v>
       </c>
       <c r="AA39">
         <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>5.89844734988682</v>
+      </c>
+      <c r="AH39">
+        <v>1310</v>
+      </c>
+      <c r="AI39">
+        <v>43.416</v>
       </c>
       <c r="AM39">
         <v>10.4666730201757</v>
@@ -4875,25 +5250,34 @@
         <v>117</v>
       </c>
       <c r="T40">
-        <v>6551161404.09357</v>
+        <v>7985349731.46471</v>
       </c>
       <c r="U40">
-        <v>1843.24280182141</v>
+        <v>2243.979662444</v>
       </c>
       <c r="V40">
-        <v>-0.5</v>
+        <v>9.396806409465579</v>
       </c>
       <c r="W40">
-        <v>-0.437094241942518</v>
+        <v>9.42610336686592</v>
       </c>
       <c r="Y40">
-        <v>17.9488668324983</v>
+        <v>17.1143945818751</v>
       </c>
       <c r="Z40">
-        <v>68.22066088456251</v>
+        <v>68.09445884446779</v>
       </c>
       <c r="AA40">
         <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>13.4596943568544</v>
+      </c>
+      <c r="AH40">
+        <v>123.918445520075</v>
+      </c>
+      <c r="AI40">
+        <v>44.879</v>
       </c>
       <c r="AM40">
         <v>2.05109476271556</v>
@@ -4973,28 +5357,37 @@
         <v>93</v>
       </c>
       <c r="T41">
-        <v>11757940908.6277</v>
+        <v>12582122604.1768</v>
       </c>
       <c r="U41">
-        <v>3973.43983362286</v>
+        <v>4400.61451460346</v>
       </c>
       <c r="V41">
-        <v>2.29544361018836</v>
+        <v>11.6489158292897</v>
       </c>
       <c r="W41">
-        <v>0.592451978660804</v>
+        <v>9.66384159589855</v>
       </c>
       <c r="X41">
-        <v>11.1614544222061</v>
+        <v>11.52422911524</v>
       </c>
       <c r="Y41">
-        <v>34.0705088562784</v>
+        <v>34.4173886532547</v>
       </c>
       <c r="Z41">
-        <v>51.0797619902436</v>
+        <v>50.449080356485</v>
       </c>
       <c r="AA41">
         <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>4.92164167670222</v>
+      </c>
+      <c r="AH41">
+        <v>1.84040140065398</v>
+      </c>
+      <c r="AI41">
+        <v>70.366</v>
       </c>
       <c r="AM41">
         <v>15.0007071924412</v>
@@ -5065,28 +5458,37 @@
         <v>67</v>
       </c>
       <c r="T42">
-        <v>3992640233.17019</v>
+        <v>4464497583.51479</v>
       </c>
       <c r="U42">
-        <v>6415.03408351413</v>
+        <v>7186.81145498166</v>
       </c>
       <c r="V42">
-        <v>3.37469381321137</v>
+        <v>3.5489805521145</v>
       </c>
       <c r="W42">
-        <v>3.27869168427566</v>
+        <v>3.44796642604285</v>
       </c>
       <c r="X42">
-        <v>5.00731752736254</v>
+        <v>4.92826751310873</v>
       </c>
       <c r="Y42">
-        <v>20.3</v>
+        <v>18.8368730066686</v>
       </c>
       <c r="Z42">
-        <v>69.5</v>
+        <v>71.3717381849812</v>
       </c>
       <c r="AA42">
         <v>0</v>
+      </c>
+      <c r="AG42">
+        <v>15.4045089743363</v>
+      </c>
+      <c r="AH42">
+        <v>46.1863940520446</v>
+      </c>
+      <c r="AI42">
+        <v>63.643</v>
       </c>
       <c r="AM42">
         <v>8.90737901970053</v>
@@ -5157,22 +5559,31 @@
         <v>132</v>
       </c>
       <c r="T43">
-        <v>64865515159.2277</v>
+        <v>58652652370.6565</v>
       </c>
       <c r="U43">
-        <v>1203.50538655951</v>
+        <v>1106.99157606477</v>
       </c>
       <c r="V43">
-        <v>6.99127097835952</v>
+        <v>8.519691107222931</v>
       </c>
       <c r="W43">
-        <v>6.07813464292907</v>
+        <v>7.61852252895945</v>
       </c>
       <c r="X43">
-        <v>15.5074719341824</v>
+        <v>16.276070808657</v>
       </c>
       <c r="AA43">
         <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0.178991283692088</v>
+      </c>
+      <c r="AH43">
+        <v>81.1291556930238</v>
+      </c>
+      <c r="AI43">
+        <v>33.007</v>
       </c>
       <c r="AM43">
         <v>1.81310084339966</v>
@@ -5243,28 +5654,37 @@
         <v>124</v>
       </c>
       <c r="T44">
-        <v>20880545907.4264</v>
+        <v>19271168018.482</v>
       </c>
       <c r="U44">
-        <v>732.298716316243</v>
+        <v>692.336309425971</v>
       </c>
       <c r="V44">
-        <v>3.36295318337802</v>
+        <v>4.12887767631092</v>
       </c>
       <c r="W44">
-        <v>2.13415578359164</v>
+        <v>2.87766183388283</v>
       </c>
       <c r="X44">
-        <v>13.830656461372</v>
+        <v>14.7911465736571</v>
       </c>
       <c r="Y44">
-        <v>15.6633876230348</v>
+        <v>15.7303105582732</v>
       </c>
       <c r="Z44">
-        <v>51.5505780300137</v>
+        <v>49.2246041721167</v>
       </c>
       <c r="AA44">
         <v>0</v>
+      </c>
+      <c r="AG44">
+        <v>1.12045141395488</v>
+      </c>
+      <c r="AH44">
+        <v>194.174963376352</v>
+      </c>
+      <c r="AI44">
+        <v>17.877</v>
       </c>
       <c r="AM44">
         <v>0.557991092712381</v>
@@ -5335,19 +5755,37 @@
         <v>53</v>
       </c>
       <c r="T45">
-        <v>70254876462.9389</v>
+        <v>78182574772.4317</v>
       </c>
       <c r="U45">
-        <v>15645.0807292348</v>
+        <v>20011.3477786118</v>
       </c>
       <c r="V45">
-        <v>3.49999999999999</v>
+        <v>3.91278312612278</v>
       </c>
       <c r="W45">
-        <v>-2.36546119944124</v>
+        <v>-5.70794339968101</v>
+      </c>
+      <c r="X45">
+        <v>1.23414900270116</v>
+      </c>
+      <c r="Y45">
+        <v>68.8682291458757</v>
+      </c>
+      <c r="Z45">
+        <v>37.691125437441</v>
       </c>
       <c r="AA45">
         <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>4.24755343785066</v>
+      </c>
+      <c r="AH45">
+        <v>12.6233021001616</v>
+      </c>
+      <c r="AI45">
+        <v>76.699</v>
       </c>
       <c r="AM45">
         <v>7.99832070032044</v>
@@ -5427,28 +5865,37 @@
         <v>117</v>
       </c>
       <c r="T46">
-        <v>269971498118.442</v>
+        <v>231149768633.284</v>
       </c>
       <c r="U46">
-        <v>1428.98863660717</v>
+        <v>1275.71274958523</v>
       </c>
       <c r="V46">
-        <v>5.53810056237647</v>
+        <v>4.36724945081146</v>
       </c>
       <c r="W46">
-        <v>3.37030826529043</v>
+        <v>2.17821652168604</v>
       </c>
       <c r="X46">
-        <v>3.50485909005935</v>
+        <v>3.50350710536669</v>
       </c>
       <c r="Y46">
-        <v>18.9918473602083</v>
+        <v>21.0220062839477</v>
       </c>
       <c r="Z46">
-        <v>55.5440889943875</v>
+        <v>54.1603265397565</v>
       </c>
       <c r="AA46">
         <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0.893862859996383</v>
+      </c>
+      <c r="AH46">
+        <v>235.046500103778</v>
+      </c>
+      <c r="AI46">
+        <v>37.86</v>
       </c>
       <c r="AM46">
         <v>0.753111157181702</v>
@@ -5528,28 +5975,37 @@
         <v>99</v>
       </c>
       <c r="T47">
-        <v>291965336390.95</v>
+        <v>271927428132.554</v>
       </c>
       <c r="U47">
-        <v>2899.37527818265</v>
+        <v>2786.95046841825</v>
       </c>
       <c r="V47">
-        <v>5.80572866285858</v>
+        <v>7.05527222806217</v>
       </c>
       <c r="W47">
-        <v>4.16588236832258</v>
+        <v>5.34984092432215</v>
       </c>
       <c r="X47">
-        <v>4.63007864310703</v>
+        <v>3.82421228710754</v>
       </c>
       <c r="Y47">
-        <v>30.8898334926965</v>
+        <v>31.1525723760441</v>
       </c>
       <c r="Z47">
-        <v>58.843620179926</v>
+        <v>57.6091685823761</v>
       </c>
       <c r="AA47">
         <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>18.1701581446772</v>
+      </c>
+      <c r="AH47">
+        <v>327.235053828353</v>
+      </c>
+      <c r="AI47">
+        <v>44.633</v>
       </c>
       <c r="AM47">
         <v>2.9622487542996</v>
@@ -5629,28 +6085,37 @@
         <v>36</v>
       </c>
       <c r="T48">
-        <v>474783393022.947</v>
+        <v>524059039422.894</v>
       </c>
       <c r="U48">
-        <v>12494.4661900747</v>
+        <v>13776.4547643996</v>
       </c>
       <c r="V48">
-        <v>3.64971913068008</v>
+        <v>1.26470516286732</v>
       </c>
       <c r="W48">
-        <v>3.68310842296589</v>
+        <v>1.32584700735678</v>
       </c>
       <c r="X48">
-        <v>7.10442013570666</v>
+        <v>8.28676607860085</v>
       </c>
       <c r="Y48">
-        <v>33.541179641684</v>
+        <v>32.2684798659817</v>
       </c>
       <c r="Z48">
-        <v>63.6822741379658</v>
+        <v>64.4951470040331</v>
       </c>
       <c r="AA48">
         <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>18.3978913894434</v>
+      </c>
+      <c r="AH48">
+        <v>124.229110740995</v>
+      </c>
+      <c r="AI48">
+        <v>60.617</v>
       </c>
       <c r="AM48">
         <v>2.05434480392046</v>
@@ -5727,28 +6192,37 @@
         <v>33</v>
       </c>
       <c r="T49">
-        <v>166907692307.692</v>
+        <v>201885439560.44</v>
       </c>
       <c r="U49">
-        <v>74667.1970705737</v>
+        <v>96076.99637576551</v>
       </c>
       <c r="V49">
-        <v>3.58277342974473</v>
+        <v>4.58167359026795</v>
       </c>
       <c r="W49">
-        <v>0.6500161136278</v>
+        <v>0.318153079782618</v>
       </c>
       <c r="X49">
-        <v>2.38355689170941</v>
+        <v>2.69564967632782</v>
       </c>
       <c r="Y49">
-        <v>55.7613934134812</v>
+        <v>70.59737665387971</v>
       </c>
       <c r="Z49">
-        <v>44.1023201611735</v>
+        <v>29.3080478946416</v>
       </c>
       <c r="AA49">
         <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>9.93635278347635</v>
+      </c>
+      <c r="AH49">
+        <v>180.989491817399</v>
+      </c>
+      <c r="AI49">
+        <v>99.06100000000001</v>
       </c>
       <c r="AM49">
         <v>-1.13862363609829</v>
@@ -5813,25 +6287,37 @@
         <v>61</v>
       </c>
       <c r="T50">
-        <v>177954489851.961</v>
+        <v>191549024910.604</v>
       </c>
       <c r="U50">
-        <v>8972.92251840971</v>
+        <v>9585.266592646531</v>
       </c>
       <c r="V50">
-        <v>3.73668357850366</v>
+        <v>3.53160319916321</v>
       </c>
       <c r="W50">
-        <v>4.13730059924066</v>
+        <v>3.91675455457245</v>
+      </c>
+      <c r="X50">
+        <v>3.95296762973606</v>
       </c>
       <c r="Y50">
-        <v>26.4496323093554</v>
+        <v>28.6078678512215</v>
       </c>
       <c r="Z50">
-        <v>68.7912879062644</v>
+        <v>65.26413439457821</v>
       </c>
       <c r="AA50">
         <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>17.4678210583778</v>
+      </c>
+      <c r="AH50">
+        <v>86.8742903099596</v>
+      </c>
+      <c r="AI50">
+        <v>54.235</v>
       </c>
       <c r="AM50">
         <v>2.87285247092095</v>
@@ -5902,25 +6388,37 @@
         <v>138</v>
       </c>
       <c r="T51">
-        <v>1326015096948.19</v>
+        <v>2230628062254.41</v>
       </c>
       <c r="U51">
-        <v>9057.11306037766</v>
+        <v>15543.6978380394</v>
       </c>
       <c r="V51">
-        <v>-3.72667344001421</v>
+        <v>1.27945391095746</v>
       </c>
       <c r="W51">
-        <v>-3.9340216039501</v>
+        <v>1.06403547640875</v>
+      </c>
+      <c r="X51">
+        <v>19.1842900302115</v>
       </c>
       <c r="Y51">
-        <v>32.6045564415853</v>
+        <v>32.8668278015295</v>
       </c>
       <c r="Z51">
-        <v>62.7653649153076</v>
+        <v>63.3089599113629</v>
       </c>
       <c r="AA51">
         <v>0</v>
+      </c>
+      <c r="AG51">
+        <v>16.6244715558666</v>
+      </c>
+      <c r="AH51">
+        <v>8.76278012831512</v>
+      </c>
+      <c r="AI51">
+        <v>73.851</v>
       </c>
       <c r="AM51">
         <v>0.529988841533747</v>
@@ -5997,28 +6495,37 @@
         <v>58</v>
       </c>
       <c r="T52">
-        <v>646001866666.667</v>
+        <v>744335733333.333</v>
       </c>
       <c r="U52">
-        <v>20481.7453220484</v>
+        <v>24646.0208730264</v>
       </c>
       <c r="V52">
-        <v>3.48565641322274</v>
+        <v>2.66991139463894</v>
       </c>
       <c r="W52">
-        <v>1.34041487086908</v>
+        <v>0.273216716269431</v>
       </c>
       <c r="X52">
-        <v>9.46274605767656</v>
+        <v>9.36166594428682</v>
       </c>
       <c r="Y52">
-        <v>45.8979065901564</v>
+        <v>60.0483509412778</v>
       </c>
       <c r="Z52">
-        <v>51.8379926249955</v>
+        <v>38.0981485415721</v>
       </c>
       <c r="AA52">
         <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>10.1798058682147</v>
+      </c>
+      <c r="AH52">
+        <v>14.0490261386526</v>
+      </c>
+      <c r="AI52">
+        <v>82.71899999999999</v>
       </c>
       <c r="AM52">
         <v>0.5427698756384161</v>
@@ -6098,28 +6605,37 @@
         <v>87</v>
       </c>
       <c r="T53">
-        <v>36513027127.6723</v>
+        <v>45519650911.4138</v>
       </c>
       <c r="U53">
-        <v>5143.94992561858</v>
+        <v>6353.82638279332</v>
       </c>
       <c r="V53">
-        <v>0.726074886537418</v>
+        <v>2.57173410729068</v>
       </c>
       <c r="W53">
-        <v>1.18483227762383</v>
+        <v>3.0720556044908</v>
       </c>
       <c r="X53">
-        <v>32.7860343469515</v>
+        <v>35.0450852696101</v>
       </c>
       <c r="Y53">
-        <v>30.1053105407539</v>
+        <v>31.6553008662277</v>
       </c>
       <c r="Z53">
-        <v>60.4319434015695</v>
+        <v>58.9830331894855</v>
       </c>
       <c r="AA53">
         <v>0</v>
+      </c>
+      <c r="AG53">
+        <v>15.2328080187388</v>
+      </c>
+      <c r="AH53">
+        <v>81.9132403384404</v>
+      </c>
+      <c r="AI53">
+        <v>55.373</v>
       </c>
       <c r="AM53">
         <v>8.13196457614805</v>
@@ -6190,22 +6706,37 @@
         <v>3</v>
       </c>
       <c r="T54">
-        <v>292739307535.642</v>
+        <v>300288499960.042</v>
       </c>
       <c r="U54">
-        <v>52888.7446717529</v>
+        <v>55617.6125035777</v>
       </c>
       <c r="V54">
-        <v>2.008372345195</v>
+        <v>4.675477619972</v>
       </c>
       <c r="W54">
-        <v>0.805319025620818</v>
+        <v>2.99410914156886</v>
       </c>
       <c r="X54">
-        <v>18.2634544720488</v>
+        <v>19.2026834208509</v>
+      </c>
+      <c r="Y54">
+        <v>25.109649122807</v>
+      </c>
+      <c r="Z54">
+        <v>74.8558823931905</v>
       </c>
       <c r="AA54">
         <v>0</v>
+      </c>
+      <c r="AG54">
+        <v>27.59557605996</v>
+      </c>
+      <c r="AH54">
+        <v>7636.72135785007</v>
+      </c>
+      <c r="AI54">
+        <v>100</v>
       </c>
       <c r="AM54">
         <v>22.5286495297057</v>
@@ -6276,28 +6807,37 @@
         <v>57</v>
       </c>
       <c r="T55">
-        <v>86581789952.3123</v>
+        <v>98028544875.1992</v>
       </c>
       <c r="U55">
-        <v>15962.5722388828</v>
+        <v>18108.5217487811</v>
       </c>
       <c r="V55">
-        <v>3.59502093291218</v>
+        <v>1.42798463285574</v>
       </c>
       <c r="W55">
-        <v>3.49186614856126</v>
+        <v>1.31905067911262</v>
       </c>
       <c r="X55">
-        <v>8.67951186043066</v>
+        <v>8.22643497696397</v>
       </c>
       <c r="Y55">
-        <v>34.384839708011</v>
+        <v>32.9561458313237</v>
       </c>
       <c r="Z55">
-        <v>61.5662156970323</v>
+        <v>63.076336319669</v>
       </c>
       <c r="AA55">
         <v>0</v>
+      </c>
+      <c r="AG55">
+        <v>20.348892146248</v>
+      </c>
+      <c r="AH55">
+        <v>112.572637664282</v>
+      </c>
+      <c r="AI55">
+        <v>53.945</v>
       </c>
       <c r="AM55">
         <v>2.39663156157168</v>
@@ -6377,28 +6917,37 @@
         <v>36</v>
       </c>
       <c r="T56">
-        <v>42746980843.0904</v>
+        <v>47675792660.2581</v>
       </c>
       <c r="U56">
-        <v>20713.0747463331</v>
+        <v>23144.1167154096</v>
       </c>
       <c r="V56">
-        <v>2.87916089867399</v>
+        <v>-1.05786567500563</v>
       </c>
       <c r="W56">
-        <v>2.79002881614979</v>
+        <v>-1.1920650102837</v>
       </c>
       <c r="X56">
-        <v>4.04894459495668</v>
+        <v>3.96736944736713</v>
       </c>
       <c r="Y56">
-        <v>33.0631143382462</v>
+        <v>32.2964977327632</v>
       </c>
       <c r="Z56">
-        <v>64.7589486699775</v>
+        <v>65.6384435516168</v>
       </c>
       <c r="AA56">
         <v>0</v>
+      </c>
+      <c r="AG56">
+        <v>25.3195829916742</v>
+      </c>
+      <c r="AH56">
+        <v>102.281678252234</v>
+      </c>
+      <c r="AI56">
+        <v>49.764</v>
       </c>
       <c r="AM56">
         <v>2.80970465939965</v>
@@ -6478,28 +7027,37 @@
         <v>89</v>
       </c>
       <c r="T57">
-        <v>82316172384.325</v>
+        <v>74294206490.5894</v>
       </c>
       <c r="U57">
-        <v>3926.17439589454</v>
+        <v>3610.19517423536</v>
       </c>
       <c r="V57">
-        <v>4.78598456723587</v>
+        <v>3.39570959648638</v>
       </c>
       <c r="W57">
-        <v>3.81139394477039</v>
+        <v>2.61693827681802</v>
       </c>
       <c r="X57">
-        <v>2.26410078484809</v>
+        <v>1.85350051715015</v>
       </c>
       <c r="Y57">
-        <v>30.7102356990977</v>
+        <v>31.2926300905389</v>
       </c>
       <c r="Z57">
-        <v>60.6102524404716</v>
+        <v>60.4809349324972</v>
       </c>
       <c r="AA57">
         <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>1.99479364391713</v>
+      </c>
+      <c r="AH57">
+        <v>328.16137777069</v>
+      </c>
+      <c r="AI57">
+        <v>18.3</v>
       </c>
       <c r="AM57">
         <v>1.81161980789565</v>
@@ -6566,8 +7124,20 @@
       <c r="S58">
         <v>178</v>
       </c>
+      <c r="X58">
+        <v>4.55328256523593</v>
+      </c>
       <c r="AA58">
         <v>0</v>
+      </c>
+      <c r="AG58">
+        <v>1.58071529712151</v>
+      </c>
+      <c r="AH58">
+        <v>105.225687523825</v>
+      </c>
+      <c r="AI58">
+        <v>56.855</v>
       </c>
       <c r="AM58">
         <v>3.07377535072981</v>
@@ -6638,22 +7208,37 @@
         <v>152</v>
       </c>
       <c r="T59">
-        <v>7853450374.0001</v>
+        <v>8506674782.75471</v>
       </c>
       <c r="U59">
-        <v>925.91188767081</v>
+        <v>1048.66690599689</v>
       </c>
       <c r="V59">
-        <v>4.19999999999999</v>
+        <v>7.40000056988259</v>
       </c>
       <c r="W59">
-        <v>1.91479670425866</v>
+        <v>5.00405689715602</v>
       </c>
       <c r="X59">
-        <v>2.17793699177633</v>
+        <v>2.06505871562003</v>
+      </c>
+      <c r="Y59">
+        <v>21.7472468474963</v>
+      </c>
+      <c r="Z59">
+        <v>50.8387360727688</v>
       </c>
       <c r="AA59">
         <v>0</v>
+      </c>
+      <c r="AG59">
+        <v>0.0706641971560341</v>
+      </c>
+      <c r="AH59">
+        <v>57.9586596170334</v>
+      </c>
+      <c r="AI59">
+        <v>26.621</v>
       </c>
       <c r="AM59">
         <v>2.93584693011557</v>
@@ -6813,19 +7398,28 @@
         <v>23</v>
       </c>
       <c r="T61">
-        <v>370292716133.424</v>
+        <v>387192103471.75</v>
       </c>
       <c r="U61">
-        <v>40438.3763627115</v>
+        <v>42831.0891322689</v>
       </c>
       <c r="V61">
-        <v>3.18267819490927</v>
+        <v>4.32136025504781</v>
       </c>
       <c r="W61">
-        <v>2.38461774621288</v>
+        <v>3.31234867833155</v>
       </c>
       <c r="AA61">
         <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>11.1482946576064</v>
+      </c>
+      <c r="AH61">
+        <v>108.133708133971</v>
+      </c>
+      <c r="AI61">
+        <v>84.98099999999999</v>
       </c>
       <c r="AM61">
         <v>2.50743967642557</v>
@@ -6905,22 +7499,37 @@
         <v>78</v>
       </c>
       <c r="T62">
-        <v>718221078308.824</v>
+        <v>823242587456.666</v>
       </c>
       <c r="U62">
-        <v>9130.02606479616</v>
+        <v>10800.3579763053</v>
+      </c>
+      <c r="V62">
+        <v>1.29818761438101</v>
       </c>
       <c r="W62">
-        <v>2.47524471544042</v>
+        <v>2.31372732182606</v>
+      </c>
+      <c r="X62">
+        <v>11.3099347068069</v>
       </c>
       <c r="Y62">
-        <v>26.4912091465332</v>
+        <v>26.6087145436181</v>
       </c>
       <c r="Z62">
-        <v>64.9192896320277</v>
+        <v>65.05919257334</v>
       </c>
       <c r="AA62">
         <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>11.8685140164751</v>
+      </c>
+      <c r="AH62">
+        <v>99.03932928809949</v>
+      </c>
+      <c r="AI62">
+        <v>72.37</v>
       </c>
       <c r="AM62">
         <v>1.70174107390969</v>
@@ -6991,22 +7600,31 @@
         <v>161</v>
       </c>
       <c r="T63">
-        <v>37334232257.1429</v>
+        <v>39197543859.6491</v>
       </c>
       <c r="U63">
-        <v>6947.84002260404</v>
+        <v>7480.32167773692</v>
       </c>
       <c r="V63">
-        <v>3.98485920209721</v>
+        <v>4.19250934713969</v>
       </c>
       <c r="W63">
-        <v>5.1856911041976</v>
+        <v>8.78788652490779</v>
       </c>
       <c r="X63">
-        <v>8.58950122143913</v>
+        <v>8.33209266691987</v>
       </c>
       <c r="AA63">
         <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>0.0343506730441872</v>
+      </c>
+      <c r="AH63">
+        <v>11.1507841593429</v>
+      </c>
+      <c r="AI63">
+        <v>49.35</v>
       </c>
       <c r="AM63">
         <v>4.87019465317109</v>
@@ -7231,25 +7849,37 @@
         <v>120</v>
       </c>
       <c r="T66">
-        <v>90615023323.73531</v>
+        <v>181334417615.413</v>
       </c>
       <c r="U66">
-        <v>2114.95471628444</v>
+        <v>3986.28296611562</v>
       </c>
       <c r="V66">
-        <v>-0.5</v>
+        <v>-1.75196054652761</v>
       </c>
       <c r="W66">
-        <v>-9.57171491891337</v>
+        <v>0.227964194013452</v>
+      </c>
+      <c r="X66">
+        <v>0.725777246412041</v>
       </c>
       <c r="Y66">
-        <v>25.9104766821382</v>
+        <v>26.2252091243357</v>
       </c>
       <c r="Z66">
-        <v>60.0531887054144</v>
+        <v>63.6122078450611</v>
       </c>
       <c r="AA66">
         <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>8.83434034121812</v>
+      </c>
+      <c r="AH66">
+        <v>78.5224055789546</v>
+      </c>
+      <c r="AI66">
+        <v>69.274</v>
       </c>
       <c r="AM66">
         <v>1.89249794728758</v>
@@ -7320,28 +7950,37 @@
         <v>158</v>
       </c>
       <c r="T67">
-        <v>66732801392.6618</v>
+        <v>56795656324.5823</v>
       </c>
       <c r="U67">
-        <v>2132.07244181734</v>
+        <v>1877.9645118434</v>
       </c>
       <c r="V67">
-        <v>7.99999999999994</v>
+        <v>7.99999999999972</v>
       </c>
       <c r="W67">
-        <v>6.13050048722816</v>
+        <v>6.32624854512723</v>
       </c>
       <c r="X67">
-        <v>14.0363346124475</v>
+        <v>10.1625830306032</v>
       </c>
       <c r="Y67">
-        <v>34.6262346289219</v>
+        <v>33.296274016738</v>
       </c>
       <c r="Z67">
-        <v>47.1103108990293</v>
+        <v>47.5010425624111</v>
       </c>
       <c r="AA67">
         <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>1.05861242902925</v>
+      </c>
+      <c r="AH67">
+        <v>71.09355900329101</v>
+      </c>
+      <c r="AI67">
+        <v>36.217</v>
       </c>
       <c r="AM67">
         <v>1.23622661905596</v>
@@ -7421,28 +8060,37 @@
         <v>117</v>
       </c>
       <c r="T68">
-        <v>193599379094.859</v>
+        <v>171222025117.381</v>
       </c>
       <c r="U68">
-        <v>2111.13802366815</v>
+        <v>1907.56438167972</v>
       </c>
       <c r="V68">
-        <v>6.67928878891431</v>
+        <v>5.42188299130713</v>
       </c>
       <c r="W68">
-        <v>5.54518487347883</v>
+        <v>4.30576252041945</v>
       </c>
       <c r="X68">
-        <v>16.9922120022076</v>
+        <v>17.9635863672912</v>
       </c>
       <c r="Y68">
-        <v>33.2500807324448</v>
+        <v>33.1900402370139</v>
       </c>
       <c r="Z68">
-        <v>39.7332895764278</v>
+        <v>38.7362028780262</v>
       </c>
       <c r="AA68">
         <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>5.62019088777233</v>
+      </c>
+      <c r="AH68">
+        <v>289.48140742413</v>
+      </c>
+      <c r="AI68">
+        <v>32.309</v>
       </c>
       <c r="AM68">
         <v>6.32786216726311</v>
@@ -7509,8 +8157,29 @@
       <c r="S69">
         <v>176</v>
       </c>
+      <c r="T69">
+        <v>35954502303.5041</v>
+      </c>
+      <c r="U69">
+        <v>1408.14619260488</v>
+      </c>
+      <c r="V69">
+        <v>4.15570552616529</v>
+      </c>
+      <c r="W69">
+        <v>1.50247641027066</v>
+      </c>
       <c r="AA69">
         <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>1.05214074381844</v>
+      </c>
+      <c r="AH69">
+        <v>48.3611133208326</v>
+      </c>
+      <c r="AI69">
+        <v>33.45</v>
       </c>
       <c r="AM69">
         <v>-1.04813152076633</v>
